--- a/District-Constituency.xlsx
+++ b/District-Constituency.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="156">
   <si>
     <t xml:space="preserve">State </t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>Giridih</t>
-  </si>
-  <si>
-    <t>Giridihi</t>
   </si>
   <si>
     <t>Kodarma</t>
@@ -887,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,35 +911,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>95.470733718054404</v>
+        <v>41.166701873462898</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -952,13 +951,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>74.294406062501196</v>
+        <v>59.3699858122961</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -967,38 +966,34 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>68.531123266466594</v>
+        <v>38.523377190316502</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>67.582547278971404</v>
+        <v>36.130072163114797</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1007,26 +1002,20 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
-        <v>63.672309999251702</v>
+        <v>35.541507126143401</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>128</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1034,13 +1023,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>59.3699858122961</v>
+        <v>74.294406062501196</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1052,13 +1041,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3">
-        <v>57.628501746268</v>
+        <v>53.710121831795497</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1070,13 +1059,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>53.710121831795497</v>
+        <v>57.628501746268</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1088,15 +1077,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
-        <v>52.304221529084003</v>
+        <v>24.778815092747799</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1106,53 +1097,49 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
-        <v>50.991627599930702</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>52.304221529084003</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
-        <v>49.724568055364799</v>
+        <v>20.363030546588298</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>124</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
-        <v>49.137486945994198</v>
+        <v>47.587136202489901</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -1164,57 +1151,59 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
-        <v>47.587136202489901</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>50.991627599930702</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3">
-        <v>47.362840599985098</v>
+        <v>22.0958127615718</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="3">
-        <v>45.536309135989299</v>
+        <v>41.136324890855597</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>98</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1224,59 +1213,57 @@
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3">
-        <v>42.526073731170399</v>
+        <v>22.725089500571801</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="3">
-        <v>41.714174042244601</v>
+        <v>42.526073731170399</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="3">
-        <v>41.166701873462898</v>
+        <v>67.582547278971404</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1286,52 +1273,56 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3">
-        <v>41.136324890855597</v>
+        <v>21.245415588674199</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="3">
-        <v>39.378333738029198</v>
+        <v>36.763377466939097</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C22" s="3">
-        <v>39.108476997358899</v>
+        <v>21.2095186974414</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1339,78 +1330,72 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3">
-        <v>38.523377190316502</v>
+        <v>29.879560942781801</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3">
-        <v>38.088939261639098</v>
+        <v>27.239275115507901</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>97</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C25" s="3">
-        <v>37.467902641456703</v>
+        <v>21.410113113720701</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3">
-        <v>37.217496471999802</v>
+        <v>20.7964123861106</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1419,39 +1404,37 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C27" s="3">
-        <v>36.763377466939097</v>
+        <v>37.217496471999802</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>154</v>
+        <v>49</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C28" s="3">
-        <v>36.715011739531001</v>
+        <v>20.1242891573857</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1459,16 +1442,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C29" s="3">
-        <v>36.130072163114797</v>
+        <v>20.1093765953934</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1477,16 +1460,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="3">
-        <v>35.541507126143401</v>
+        <v>20.112970171814499</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1495,56 +1478,52 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>110</v>
+        <v>49</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C31" s="3">
-        <v>35.0816900586386</v>
+        <v>32.361500661285199</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>111</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="3">
-        <v>34.831412069857599</v>
+        <v>31.264214191017199</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>76</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3">
-        <v>34.305335700843301</v>
+        <v>22.073951510488801</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1553,122 +1532,122 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C34" s="3">
-        <v>33.891276406356198</v>
+        <v>27.632219102382901</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>138</v>
+        <v>59</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C35" s="3">
-        <v>33.242657950864697</v>
+        <v>34.305335700843301</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>142</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C36" s="3">
-        <v>33.048527937301799</v>
+        <v>37.467902641456703</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C37" s="3">
-        <v>32.552468654926798</v>
+        <v>68.531123266466594</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3">
-        <v>32.361500661285199</v>
+        <v>26.880643305283499</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3">
-        <v>31.264214191017199</v>
+        <v>26.870726948742</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1677,16 +1656,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="3">
-        <v>30.9845769523189</v>
+        <v>95.470733718054404</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1695,36 +1674,34 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C41" s="3">
-        <v>29.879560942781801</v>
+        <v>30.9845769523189</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C42" s="3">
-        <v>29.427009168735601</v>
+        <v>24.731376788995799</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1733,141 +1710,143 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C43" s="3">
-        <v>27.632219102382901</v>
+        <v>34.831412069857599</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="C44" s="3">
-        <v>27.239275115507901</v>
+        <v>36.715011739531001</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C45" s="3">
-        <v>26.880643305283499</v>
+        <v>22.037746378359198</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C46" s="3">
-        <v>26.870726948742</v>
+        <v>33.891276406356198</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C47" s="3">
-        <v>25.596676615172999</v>
+        <v>41.714174042244601</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="C48" s="3">
-        <v>25.414244661091502</v>
+        <v>21.332881131520999</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C49" s="3">
-        <v>24.778815092747799</v>
+        <v>21.065372476676199</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -1875,59 +1854,59 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="3">
+        <v>23.792570684978301</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="3">
-        <v>24.731376788995799</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C51" s="3">
-        <v>24.440880026416401</v>
+        <v>39.378333738029198</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>115</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3">
-        <v>24.238540954478399</v>
+        <v>20.524152140695001</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -1935,100 +1914,98 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C53" s="3">
-        <v>24.2219467789592</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>130</v>
+        <v>32.552468654926798</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>137</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C54" s="3">
-        <v>24.021106499951401</v>
+        <v>45.536309135989299</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="C55" s="3">
-        <v>24.018911931920201</v>
+        <v>38.088939261639098</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C56" s="3">
-        <v>23.792570684978301</v>
+        <v>23.752555186869799</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C57" s="3">
-        <v>23.752555186869799</v>
+        <v>49.137486945994198</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2037,62 +2014,54 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>27</v>
+        <v>72</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C58" s="3">
-        <v>22.725089500571801</v>
+        <v>39.108476997358899</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C59" s="3">
-        <v>22.0958127615718</v>
+        <v>24.021106499951401</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C60" s="3">
-        <v>22.073951510488801</v>
+        <v>25.596676615172999</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -2101,36 +2070,34 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C61" s="3">
-        <v>22.037746378359198</v>
+        <v>29.427009168735601</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C62" s="3">
-        <v>21.410113113720701</v>
+        <v>33.048527937301799</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -2139,39 +2106,37 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C63" s="3">
-        <v>21.332881131520999</v>
+        <v>20.589520675550801</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>33</v>
+        <v>108</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C64" s="3">
-        <v>21.245415588674199</v>
+        <v>35.0816900586386</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -2179,95 +2144,99 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>36</v>
+        <v>108</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C65" s="3">
-        <v>21.2095186974414</v>
+        <v>24.018911931920201</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C66" s="3">
-        <v>21.065372476676199</v>
+        <v>24.440880026416401</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C67" s="3">
-        <v>20.7964123861106</v>
+        <v>24.238540954478399</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C68" s="3">
-        <v>20.589520675550801</v>
+        <v>20.266654945377901</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C69" s="3">
-        <v>20.524152140695001</v>
+        <v>49.724568055364799</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -2275,101 +2244,130 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C70" s="3">
-        <v>20.363030546588298</v>
+        <v>63.672309999251702</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C71" s="3">
-        <v>20.266654945377901</v>
+        <v>25.414244661091502</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C72" s="3">
-        <v>20.1242891573857</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>51</v>
+        <v>24.2219467789592</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>54</v>
+        <v>108</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C73" s="3">
-        <v>20.112970171814499</v>
+        <v>33.242657950864697</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>53</v>
+        <v>108</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C74" s="3">
-        <v>20.1093765953934</v>
+        <v>47.362840599985098</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:H74">
-    <sortCondition descending="1" ref="C2:C74"/>
+    <sortCondition ref="A2:A74"/>
+    <sortCondition ref="B2:B74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/District-Constituency.xlsx
+++ b/District-Constituency.xlsx
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/District-Constituency.xlsx
+++ b/District-Constituency.xlsx
@@ -32,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="156">
   <si>
-    <t xml:space="preserve">State </t>
-  </si>
-  <si>
     <t>Districts</t>
   </si>
   <si>
@@ -498,6 +495,9 @@
   </si>
   <si>
     <t>Dakshin Dinajpur</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,45 +902,45 @@
   <sheetData>
     <row r="1" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>41.166701873462898</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -948,16 +948,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>59.3699858122961</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -966,16 +966,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>38.523377190316502</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -984,16 +984,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>36.130072163114797</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1002,16 +1002,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>35.541507126143401</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1020,16 +1020,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>74.294406062501196</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1038,16 +1038,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>53.710121831795497</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1056,16 +1056,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>57.628501746268</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1074,19 +1074,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>24.778815092747799</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <v>52.304221529084003</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1112,16 +1112,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>20.363030546588298</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1130,16 +1130,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
         <v>47.587136202489901</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -1148,19 +1148,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <v>50.991627599930702</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1168,40 +1168,40 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>22.0958127615718</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C16" s="3">
         <v>41.136324890855597</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1210,41 +1210,41 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3">
         <v>22.725089500571801</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
         <v>42.526073731170399</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1252,16 +1252,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3">
         <v>67.582547278971404</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1270,19 +1270,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3">
         <v>21.245415588674199</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1290,19 +1290,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3">
         <v>36.763377466939097</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1310,19 +1310,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3">
         <v>21.2095186974414</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1330,19 +1330,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C23" s="3">
         <v>29.879560942781801</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1350,16 +1350,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3">
         <v>27.239275115507901</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1368,16 +1368,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C25" s="3">
         <v>21.410113113720701</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1386,16 +1386,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3">
         <v>20.7964123861106</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1404,16 +1404,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C27" s="3">
         <v>37.217496471999802</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1422,19 +1422,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C28" s="3">
         <v>20.1242891573857</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1442,16 +1442,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3">
         <v>20.1093765953934</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1460,16 +1460,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3">
         <v>20.112970171814499</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1478,16 +1478,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3">
         <v>32.361500661285199</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1496,16 +1496,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3">
         <v>31.264214191017199</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1514,16 +1514,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C33" s="3">
         <v>22.073951510488801</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1532,38 +1532,38 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C34" s="3">
         <v>27.632219102382901</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3">
         <v>34.305335700843301</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1572,82 +1572,82 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3">
         <v>37.467902641456703</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="3">
         <v>68.531123266466594</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="3">
         <v>26.880643305283499</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3">
         <v>26.870726948742</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1656,16 +1656,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="3">
         <v>95.470733718054404</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1674,16 +1674,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3">
         <v>30.9845769523189</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1692,16 +1692,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C42" s="3">
         <v>24.731376788995799</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1710,19 +1710,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="3">
         <v>34.831412069857599</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -1730,19 +1730,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44" s="3">
         <v>36.715011739531001</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -1750,19 +1750,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="3">
         <v>22.037746378359198</v>
       </c>
       <c r="D45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -1770,63 +1770,63 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3">
         <v>33.891276406356198</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="3">
         <v>41.714174042244601</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3">
         <v>21.332881131520999</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -1834,19 +1834,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="3">
         <v>21.065372476676199</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -1854,38 +1854,38 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="3">
         <v>23.792570684978301</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E50" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3">
         <v>39.378333738029198</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -1894,19 +1894,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="3">
         <v>20.524152140695001</v>
       </c>
       <c r="D52" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -1914,41 +1914,41 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3">
         <v>32.552468654926798</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="3">
         <v>45.536309135989299</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -1956,38 +1956,38 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" s="3">
         <v>38.088939261639098</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="3">
         <v>23.752555186869799</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -1996,16 +1996,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="3">
         <v>49.137486945994198</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2014,19 +2014,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="3">
         <v>39.108476997358899</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -2034,16 +2034,16 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" s="3">
         <v>24.021106499951401</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -2052,16 +2052,16 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="3">
         <v>25.596676615172999</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -2070,16 +2070,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C61" s="3">
         <v>29.427009168735601</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -2088,16 +2088,16 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C62" s="3">
         <v>33.048527937301799</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="3">
         <v>20.589520675550801</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -2124,19 +2124,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C64" s="3">
         <v>35.0816900586386</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -2144,16 +2144,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="3">
         <v>24.018911931920201</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -2162,41 +2162,41 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" s="3">
         <v>24.440880026416401</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="3">
         <v>24.238540954478399</v>
       </c>
       <c r="D67" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -2204,19 +2204,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="3">
         <v>20.266654945377901</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -2224,19 +2224,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="3">
         <v>49.724568055364799</v>
       </c>
       <c r="D69" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -2244,122 +2244,122 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C70" s="3">
         <v>63.672309999251702</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="F70" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" s="3">
         <v>25.414244661091502</v>
       </c>
       <c r="D71" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" s="3">
         <v>24.2219467789592</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" s="3">
         <v>33.242657950864697</v>
       </c>
       <c r="D73" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="G73" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="3">
         <v>47.362840599985098</v>
       </c>
       <c r="D74" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>

--- a/District-Constituency.xlsx
+++ b/District-Constituency.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="990"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="25600" windowHeight="14180" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/District-Constituency.xlsx
+++ b/District-Constituency.xlsx
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/District-Constituency.xlsx
+++ b/District-Constituency.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="25600" windowHeight="14180" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="182">
   <si>
     <t>Districts</t>
   </si>
@@ -498,6 +498,84 @@
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>Bellary</t>
+  </si>
+  <si>
+    <t>Raichur</t>
+  </si>
+  <si>
+    <t>Koppal</t>
+  </si>
+  <si>
+    <t>Kodagu</t>
+  </si>
+  <si>
+    <t>Mysore</t>
+  </si>
+  <si>
+    <t>Haveri</t>
+  </si>
+  <si>
+    <t>Dharwad</t>
+  </si>
+  <si>
+    <t>Bijapur</t>
+  </si>
+  <si>
+    <t>Gadag</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Bangalore Central</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Bhopal</t>
+  </si>
+  <si>
+    <t>Sehore</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Mumbai South</t>
+  </si>
+  <si>
+    <t>Mumbai City</t>
+  </si>
+  <si>
+    <t>Mumbai South Central</t>
+  </si>
+  <si>
+    <t>Mumbai Suburban</t>
+  </si>
+  <si>
+    <t>Raigad</t>
+  </si>
+  <si>
+    <t>Akola</t>
+  </si>
+  <si>
+    <t>Washim</t>
+  </si>
+  <si>
+    <t>Parbhani</t>
+  </si>
+  <si>
+    <t>Jalna</t>
+  </si>
+  <si>
+    <t>Ratnagiri</t>
   </si>
 </sst>
 </file>
@@ -882,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,38 +1610,30 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="3">
-        <v>27.632219102382901</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="3">
-        <v>34.305335700843301</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="6" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1572,100 +1642,80 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="3">
-        <v>37.467902641456703</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="3">
-        <v>68.531123266466594</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="3">
-        <v>26.880643305283499</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="3">
-        <v>26.870726948742</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="3">
-        <v>95.470733718054404</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="6" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -1674,16 +1724,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="3">
-        <v>30.9845769523189</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="6" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -1692,16 +1740,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="3">
-        <v>24.731376788995799</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="6" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -1710,182 +1756,172 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="3">
-        <v>34.831412069857599</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="3"/>
       <c r="D43" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>152</v>
+        <v>58</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C44" s="3">
-        <v>36.715011739531001</v>
+        <v>27.632219102382901</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C45" s="3">
-        <v>22.037746378359198</v>
+        <v>34.305335700843301</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C46" s="3">
-        <v>33.891276406356198</v>
+        <v>37.467902641456703</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C47" s="3">
-        <v>41.714174042244601</v>
+        <v>68.531123266466594</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C48" s="3">
-        <v>21.332881131520999</v>
+        <v>26.880643305283499</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F48" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C49" s="3">
-        <v>21.065372476676199</v>
+        <v>26.870726948742</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3">
-        <v>23.792570684978301</v>
+        <v>95.470733718054404</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>91</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="3">
-        <v>39.378333738029198</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C51" s="3"/>
       <c r="D51" s="6" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -1894,61 +1930,49 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="3">
-        <v>20.524152140695001</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>94</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="3">
-        <v>32.552468654926798</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>95</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="3">
-        <v>45.536309135989299</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="6" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -1956,38 +1980,30 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="3">
-        <v>38.088939261639098</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C55" s="3"/>
       <c r="D55" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>95</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="3">
-        <v>23.752555186869799</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="6" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -1996,16 +2012,14 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="3">
-        <v>49.137486945994198</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="6" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2014,36 +2028,30 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="3">
-        <v>39.108476997358899</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C58" s="3"/>
       <c r="D58" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>100</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="3">
-        <v>24.021106499951401</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C59" s="3"/>
       <c r="D59" s="6" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -2052,16 +2060,14 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="3">
-        <v>25.596676615172999</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="6" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -2070,16 +2076,14 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="3">
-        <v>29.427009168735601</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="6" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -2088,16 +2092,16 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C62" s="3">
-        <v>33.048527937301799</v>
+        <v>30.9845769523189</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -2106,16 +2110,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="C63" s="3">
-        <v>20.589520675550801</v>
+        <v>24.731376788995799</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -2124,19 +2128,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C64" s="3">
-        <v>35.0816900586386</v>
+        <v>34.831412069857599</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -2144,99 +2148,103 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C65" s="3">
-        <v>24.018911931920201</v>
+        <v>36.715011739531001</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E65" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C66" s="3">
-        <v>24.440880026416401</v>
+        <v>22.037746378359198</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C67" s="3">
-        <v>24.238540954478399</v>
+        <v>33.891276406356198</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F67" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C68" s="3">
-        <v>20.266654945377901</v>
+        <v>41.714174042244601</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F68" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C69" s="3">
-        <v>49.724568055364799</v>
+        <v>21.332881131520999</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -2244,125 +2252,535 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C70" s="3">
-        <v>63.672309999251702</v>
+        <v>21.065372476676199</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>126</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="C71" s="3">
-        <v>25.414244661091502</v>
+        <v>23.792570684978301</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>130</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C72" s="3">
-        <v>24.2219467789592</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>135</v>
-      </c>
+        <v>39.378333738029198</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C73" s="3">
-        <v>33.242657950864697</v>
+        <v>20.524152140695001</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C74" s="3">
-        <v>47.362840599985098</v>
+        <v>32.552468654926798</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="3">
+        <v>45.536309135989299</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="3">
+        <v>38.088939261639098</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="3">
+        <v>23.752555186869799</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="3">
+        <v>49.137486945994198</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="3">
+        <v>39.108476997358899</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="3">
+        <v>24.021106499951401</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="3">
+        <v>25.596676615172999</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="3">
+        <v>29.427009168735601</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="3">
+        <v>33.048527937301799</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="3">
+        <v>20.589520675550801</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="3">
+        <v>35.0816900586386</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="3">
+        <v>24.018911931920201</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="3">
+        <v>24.440880026416401</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="3">
+        <v>24.238540954478399</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="3">
+        <v>20.266654945377901</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="3">
+        <v>49.724568055364799</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="3">
+        <v>63.672309999251702</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="3">
+        <v>25.414244661091502</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="3">
+        <v>24.2219467789592</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="3">
+        <v>33.242657950864697</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="3">
+        <v>47.362840599985098</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:H74">
